--- a/test_data/func_test_data.xlsx
+++ b/test_data/func_test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D8CF7B2C-2938-458D-B79D-DD97011ED57E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F0D98677-3337-4595-8D06-F7A5368C90D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="157">
   <si>
     <t>active</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +585,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,13 +953,13 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
@@ -1005,7 +1009,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2367,7 +2371,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2557,7 +2561,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/test_data/func_test_data.xlsx
+++ b/test_data/func_test_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F0D98677-3337-4595-8D06-F7A5368C90D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59B076A6-916C-4822-AF8D-25775F203636}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="158">
   <si>
     <t>active</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +589,10 @@
   </si>
   <si>
     <t>chip error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,25 +954,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -979,456 +983,459 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="J2" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>-1</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="3"/>
+      <c r="J14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C28" s="1">
         <v>-1</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>74</v>
       </c>
     </row>

--- a/test_data/func_test_data.xlsx
+++ b/test_data/func_test_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59B076A6-916C-4822-AF8D-25775F203636}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6152D3DD-F777-4CCA-BF2F-2351858A3C0B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scandata" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="158">
   <si>
     <t>active</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,13 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>public</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44:A6:E5:07:24:3C</t>
-  </si>
-  <si>
     <t>44:A6:E5:07:24:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,9 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B4:99:4C:48:45:F4</t>
-  </si>
-  <si>
     <t>service_uuid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,14 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>44:A6:E5:07:24:3C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>__name__</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,9 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F4:B8:5E:3D:3F:22</t>
-  </si>
-  <si>
     <t>0000ffe0-0000-1000-8000-00805f9b34fb</t>
   </si>
   <si>
@@ -564,14 +543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>public</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(unknown)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,10 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>44:A6:E5:07:29:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,6 +560,40 @@
   </si>
   <si>
     <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0:DE:75:1E:08:E8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC:6F:47:BD:33:95</t>
+  </si>
+  <si>
+    <t>EC:6F:47:BD:33:95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED:37:8C:BE:E6:8D</t>
+  </si>
+  <si>
+    <t>router's mac must be specified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_result_s1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_result_other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +601,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,12 +638,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -673,7 +668,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -956,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -974,7 +971,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -983,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1004,27 +1001,27 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>6</v>
@@ -1032,10 +1029,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
@@ -1043,10 +1040,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>6</v>
@@ -1054,10 +1051,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>6</v>
@@ -1065,7 +1062,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -1076,7 +1073,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -1087,10 +1084,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>6</v>
@@ -1098,10 +1095,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>6</v>
@@ -1109,7 +1106,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -1120,7 +1117,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -1131,7 +1128,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>-1</v>
@@ -1142,301 +1139,301 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="3"/>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1">
         <v>-1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1461,16 +1458,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -1495,13 +1492,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -1518,7 +1515,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1529,38 +1526,38 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1573,18 +1570,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -1599,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1611,12 +1608,13 @@
     <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1"/>
     <col min="6" max="6" width="20.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -1631,203 +1629,236 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>154</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1">
         <v>10000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1">
         <v>10000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="E4" s="1">
         <v>10000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1">
         <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1">
         <v>10000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1">
         <v>10000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>10000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1">
         <v>10000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1">
         <v>10000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
@@ -1836,18 +1867,21 @@
         <v>10000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
@@ -1856,18 +1890,21 @@
         <v>10000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
@@ -1876,18 +1913,21 @@
         <v>10000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -1896,18 +1936,21 @@
         <v>10000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1">
         <v>-1</v>
@@ -1916,151 +1959,178 @@
         <v>10000</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1">
         <v>10000</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1">
         <v>10000</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1">
         <v>10000</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1">
         <v>10000</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1">
         <v>10000</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1">
         <v>10000</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1">
         <v>10000</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1">
         <v>10000</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C25" s="1">
         <v>123</v>
@@ -2069,86 +2139,110 @@
         <v>10000</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1">
         <v>10000</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="1">
         <v>10000</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1">
         <v>10000</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1">
         <v>10000</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1">
         <v>10000</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2257,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2177,7 +2271,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -2186,84 +2280,84 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2291,13 +2385,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2305,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -2316,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -2327,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -2338,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -2360,7 +2454,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>400</v>
@@ -2375,185 +2469,230 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="2" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>151</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>114</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.4">
+        <v>71</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>151</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.4">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>151</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>151</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.4">
+        <v>108</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>151</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.4">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>151</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.4">
+        <v>111</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.4">
+        <v>151</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>111</v>
+        <v>151</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2565,175 +2704,221 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="36.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
+    <row r="2" spans="1:5">
+      <c r="B2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
+      <c r="C7" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
+        <v>71</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2744,185 +2929,231 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>120</v>
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
+    <row r="2" spans="1:5">
+      <c r="B2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
         <v>137</v>
       </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="1" t="s">
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2933,185 +3164,231 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
+    <row r="2" spans="1:5">
+      <c r="B2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
         <v>137</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
+    <row r="14" spans="1:5">
+      <c r="B14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3122,92 +3399,138 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    <row r="2" spans="1:4">
+      <c r="B2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>140</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
